--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R4ead5ea8d499479c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Rea3fdd6c6f074dd3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Rea3fdd6c6f074dd3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Rbf6f111c3bea480c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Rbf6f111c3bea480c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R1a8bbb325e2a469b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R1a8bbb325e2a469b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Rf2fbc422e6dd4f97"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Rf2fbc422e6dd4f97"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R00a3b445d6c045e2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R00a3b445d6c045e2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R0864d4e06b324161"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R0864d4e06b324161"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R76ba3c6fbdd742ce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R76ba3c6fbdd742ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Ra9f8abc6447a4075"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Ra9f8abc6447a4075"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R8eb64bd3e49e4840"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R8eb64bd3e49e4840"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Ra7bcefe62d6c4222"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Ra7bcefe62d6c4222"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R7eae786106514969"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,34 +30,34 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R7eae786106514969"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R8170c9d3511d4fca"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,34 +30,34 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="6">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/088_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R8170c9d3511d4fca"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R927a5c3230f54b6a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
